--- a/MedicalLink/Templates/BC_BangKeTongHopHoaDon.xlsx
+++ b/MedicalLink/Templates/BC_BangKeTongHopHoaDon.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>STT</t>
   </si>
@@ -81,6 +81,12 @@
   </si>
   <si>
     <t>&amp;=[DATA1].TONGTIEN_THU</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].SOYTE</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TENBENHVIEN</t>
   </si>
 </sst>
 </file>
@@ -179,7 +185,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -226,11 +232,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,8 +247,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -534,7 +543,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="93" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,12 +559,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
+      <c r="A2" s="24" t="s">
+        <v>19</v>
+      </c>
       <c r="B2" s="12"/>
       <c r="C2" s="21" t="s">
         <v>5</v>
@@ -629,7 +642,7 @@
       <c r="D8" s="20"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
-      <c r="G8" s="23">
+      <c r="G8" s="18">
         <f>SUM(G7:G7)</f>
         <v>0</v>
       </c>
@@ -637,10 +650,10 @@
     <row r="9" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="3"/>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="18"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/MedicalLink/Templates/BC_BangKeTongHopHoaDon.xlsx
+++ b/MedicalLink/Templates/BC_BangKeTongHopHoaDon.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$H$12</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>STT</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Danh sách phiếu hủy</t>
   </si>
   <si>
-    <t>Tổng tiền</t>
-  </si>
-  <si>
     <t>&amp;=[DATA1].BILLGROUPCODE</t>
   </si>
   <si>
@@ -87,6 +84,21 @@
   </si>
   <si>
     <t>&amp;=[DATA].TENBENHVIEN</t>
+  </si>
+  <si>
+    <t>Miễn giảm</t>
+  </si>
+  <si>
+    <t>Tổng tiền thực thu</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].MIENGIAM</t>
+  </si>
+  <si>
+    <t>Người thu tiền</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA1].NGUOITHU</t>
   </si>
 </sst>
 </file>
@@ -185,7 +197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -238,20 +250,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -540,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="93" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScale="120" zoomScaleNormal="93" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,39 +576,43 @@
     <col min="5" max="5" width="9.42578125" style="6" customWidth="1"/>
     <col min="6" max="6" width="36" style="11" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="15.85546875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="29.5703125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="20"/>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="21"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="6" spans="1:7" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="7" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>0</v>
       </c>
@@ -607,55 +632,72 @@
         <v>10</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="F7" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="G7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>17</v>
+      <c r="H7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:9" s="9" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
       <c r="G8" s="18">
         <f>SUM(G7:G7)</f>
         <v>0</v>
       </c>
+      <c r="H8" s="18">
+        <f>SUM(H7:H7)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="3"/>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="23"/>
     </row>
-    <row r="11" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="F10:G10"/>
@@ -666,7 +708,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;CTrang &amp;P</oddFooter>
   </headerFooter>

--- a/MedicalLink/Templates/BC_BangKeTongHopHoaDon.xlsx
+++ b/MedicalLink/Templates/BC_BangKeTongHopHoaDon.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>STT</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>&amp;=[DATA1].NGUOITHU</t>
+  </si>
+  <si>
+    <t>Số tiền bằng chữ:</t>
+  </si>
+  <si>
+    <t>&amp;=[DATA].TONGTIEN_THU_STRING</t>
   </si>
 </sst>
 </file>
@@ -197,7 +203,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -273,6 +279,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -563,15 +575,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="E1" zoomScale="120" zoomScaleNormal="93" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="120" zoomScaleNormal="93" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="5" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="15.7109375" style="6" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" style="6" customWidth="1"/>
     <col min="6" max="6" width="36" style="11" customWidth="1"/>
@@ -689,7 +701,14 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>25</v>
+      </c>
+    </row>
     <row r="10" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E10" s="3"/>
       <c r="F10" s="23" t="s">
